--- a/tools/device-monitor-modified.xlsx
+++ b/tools/device-monitor-modified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\abroad\master\fall\ME1050\Project\SmartRangeHood\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\abroad\master\fall\ME1050\Project\SmartRangeHood\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5950A2-2353-404B-B5FA-C594DB90835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86246345-DC2C-44C6-9588-40148C97CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,6 +267,72 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bathroom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C603-4143-B38C-CA0145EB84F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -278,103 +344,7 @@
         <c:smooth val="0"/>
         <c:axId val="1937605920"/>
         <c:axId val="1937603520"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>Bathroom</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>600</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>800</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$8:$D$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>337868.85245892557</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>342643.3915212006</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>352669.40451743768</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>359685.86387431493</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>355695.2662721512</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>354123.71134021739</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-C603-4143-B38C-CA0145EB84F2}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1937605920"/>
@@ -1126,16 +1096,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1426,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1414,7 @@
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>300</v>
       </c>
@@ -1490,12 +1460,8 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H13" si="1">B2-A2</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400</v>
       </c>
@@ -1518,12 +1484,8 @@
       <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -1546,12 +1508,8 @@
       <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>600</v>
       </c>
@@ -1574,12 +1532,8 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>700</v>
       </c>
@@ -1602,12 +1556,8 @@
       <c r="G6">
         <v>100</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>800</v>
       </c>
@@ -1630,177 +1580,461 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>698689.95633199997</v>
+      </c>
+      <c r="D8">
+        <f>A8/C8 * 1000000000 * 2</f>
+        <v>286249.99999994988</v>
+      </c>
+      <c r="E8">
+        <v>28.888849</v>
+      </c>
+      <c r="F8">
+        <v>47.723590999999999</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>919941.77583699999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D26" si="1">A9/C9 * 1000000000 * 2</f>
+        <v>326107.59493669902</v>
+      </c>
+      <c r="E9">
+        <v>29.418780999999999</v>
+      </c>
+      <c r="F9">
+        <v>47.043273999999997</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>212</v>
+      </c>
+      <c r="C10">
+        <v>1234352.2561860001</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="1"/>
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>324056.60377366818</v>
+      </c>
+      <c r="E10">
+        <v>29.448955999999999</v>
+      </c>
+      <c r="F10">
+        <v>46.854351000000001</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="B11">
+        <v>281</v>
+      </c>
+      <c r="C11">
+        <v>1636098.981077</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>305604.98220643314</v>
+      </c>
+      <c r="E11">
+        <v>29.794073000000001</v>
+      </c>
+      <c r="F11">
+        <v>46.655566999999998</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>300</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>305</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>1775836.9723439999</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D13" si="2">A8/C8 * 1000000000 * 2</f>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>337868.85245892557</v>
       </c>
-      <c r="E8">
-        <v>31.857890999999999</v>
-      </c>
-      <c r="F8">
-        <v>73.789940000000001</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
+      <c r="E12">
+        <v>28.959569999999999</v>
+      </c>
+      <c r="F12">
+        <v>46.985320999999999</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>350</v>
+      </c>
+      <c r="B13">
+        <v>343</v>
+      </c>
+      <c r="C13">
+        <v>1997088.7918489999</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>350510.20408156543</v>
+      </c>
+      <c r="E13">
+        <v>29.474727999999999</v>
+      </c>
+      <c r="F13">
+        <v>46.472724999999997</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>400</v>
       </c>
-      <c r="B9">
-        <v>401</v>
-      </c>
-      <c r="C9">
-        <v>2334788.937409</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>342643.3915212006</v>
-      </c>
-      <c r="E9">
-        <v>31.864491999999998</v>
-      </c>
-      <c r="F9">
-        <v>72.557548999999995</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
+      <c r="B14">
+        <v>408</v>
+      </c>
+      <c r="C14">
+        <v>2375545.8515280001</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>336764.70588240743</v>
+      </c>
+      <c r="E14">
+        <v>29.461528999999999</v>
+      </c>
+      <c r="F14">
+        <v>46.402873999999997</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>450</v>
+      </c>
+      <c r="B15">
+        <v>449</v>
+      </c>
+      <c r="C15">
+        <v>2614264.9199419999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>344265.03340754285</v>
+      </c>
+      <c r="E15">
+        <v>29.269795999999999</v>
+      </c>
+      <c r="F15">
+        <v>46.478057999999997</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>500</v>
       </c>
-      <c r="B10">
+      <c r="B16">
         <v>487</v>
       </c>
-      <c r="C10">
+      <c r="C16">
         <v>2835516.739447</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
+      <c r="D16">
+        <f t="shared" si="1"/>
         <v>352669.40451743768</v>
       </c>
-      <c r="E10">
-        <v>31.976391</v>
-      </c>
-      <c r="F10">
-        <v>72.966812000000004</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
+      <c r="E16">
+        <v>29.861965000000001</v>
+      </c>
+      <c r="F16">
+        <v>46.143169</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>550</v>
+      </c>
+      <c r="B17">
+        <v>535</v>
+      </c>
+      <c r="C17">
+        <v>3114992.7219799999</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>353130.84112145245</v>
+      </c>
+      <c r="E17">
+        <v>29.481013999999998</v>
+      </c>
+      <c r="F17">
+        <v>46.281384000000003</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>600</v>
       </c>
-      <c r="B11">
-        <v>573</v>
-      </c>
-      <c r="C11">
-        <v>3336244.5414849999</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>359685.86387431493</v>
-      </c>
-      <c r="E11">
-        <v>31.922955000000002</v>
-      </c>
-      <c r="F11">
-        <v>72.447792000000007</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
+      <c r="B18">
+        <v>587</v>
+      </c>
+      <c r="C18">
+        <v>3417758.3697230001</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="1"/>
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>351107.32538334961</v>
+      </c>
+      <c r="E18">
+        <v>29.430724999999999</v>
+      </c>
+      <c r="F18">
+        <v>46.417614</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>650</v>
+      </c>
+      <c r="B19">
+        <v>635</v>
+      </c>
+      <c r="C19">
+        <v>3697234.352256</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>351614.17322836415</v>
+      </c>
+      <c r="E19">
+        <v>29.814505</v>
+      </c>
+      <c r="F19">
+        <v>46.403702000000003</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>700</v>
       </c>
-      <c r="B12">
-        <v>676</v>
-      </c>
-      <c r="C12">
-        <v>3935953.4206699999</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>355695.2662721512</v>
-      </c>
-      <c r="E12">
-        <v>32.135123999999998</v>
-      </c>
-      <c r="F12">
-        <v>71.850173999999996</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
+      <c r="B20">
+        <v>683</v>
+      </c>
+      <c r="C20">
+        <v>3976710.334789</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="1"/>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>352049.78038066794</v>
+      </c>
+      <c r="E20">
+        <v>29.515591000000001</v>
+      </c>
+      <c r="F20">
+        <v>46.372444000000002</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>750</v>
+      </c>
+      <c r="B21">
+        <v>735</v>
+      </c>
+      <c r="C21">
+        <v>4279475.9825330004</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>350510.20408161223</v>
+      </c>
+      <c r="E21">
+        <v>29.501760000000001</v>
+      </c>
+      <c r="F21">
+        <v>46.358325999999998</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>800</v>
       </c>
-      <c r="B13">
-        <v>776</v>
-      </c>
-      <c r="C13">
-        <v>4518195.050946</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>354123.71134021739</v>
-      </c>
-      <c r="E13">
-        <v>31.837147000000002</v>
-      </c>
-      <c r="F13">
-        <v>71.571990999999997</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
+      <c r="B22">
+        <v>783</v>
+      </c>
+      <c r="C22">
+        <v>4558951.9650659999</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>350957.85440609191</v>
+      </c>
+      <c r="E22">
+        <v>29.486673</v>
+      </c>
+      <c r="F22">
+        <v>46.294471999999999</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>850</v>
+      </c>
+      <c r="B23">
+        <v>834</v>
+      </c>
+      <c r="C23">
+        <v>4855895.1965070004</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>350089.92805752152</v>
+      </c>
+      <c r="E23">
+        <v>29.286142000000002</v>
+      </c>
+      <c r="F23">
+        <v>46.411921999999997</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>900</v>
+      </c>
+      <c r="B24">
+        <v>889</v>
+      </c>
+      <c r="C24">
+        <v>5176128.0931590004</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>347750.28121482534</v>
+      </c>
+      <c r="E24">
+        <v>29.484158000000001</v>
+      </c>
+      <c r="F24">
+        <v>46.250805</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>950</v>
+      </c>
+      <c r="B25">
+        <v>937</v>
+      </c>
+      <c r="C25">
+        <v>5455604.0756909996</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>348265.74172894837</v>
+      </c>
+      <c r="E25">
+        <v>29.515277999999999</v>
+      </c>
+      <c r="F25">
+        <v>46.229916000000003</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1000</v>
+      </c>
+      <c r="B26">
+        <v>985</v>
+      </c>
+      <c r="C26">
+        <v>5735080.058224</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>348730.964467015</v>
+      </c>
+      <c r="E26">
+        <v>29.515905</v>
+      </c>
+      <c r="F26">
+        <v>46.112366000000002</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tools/device-monitor-modified.xlsx
+++ b/tools/device-monitor-modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\abroad\master\fall\ME1050\Project\SmartRangeHood\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86246345-DC2C-44C6-9588-40148C97CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D41A30-01E9-42C7-B191-C83AE9E17E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,15 +1097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1396,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
         <v>47.723590999999999</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>47.043273999999997</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>46.854351000000001</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>46.655566999999998</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>46.985320999999999</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>46.472724999999997</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>46.402873999999997</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>46.478057999999997</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>46.143169</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>46.281384000000003</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>46.417614</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>46.403702000000003</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>46.372444000000002</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>46.358325999999998</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>46.294471999999999</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>46.411921999999997</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>46.250805</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>46.229916000000003</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,12 +2034,469 @@
         <v>46.112366000000002</v>
       </c>
       <c r="G26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>100</v>
+      </c>
+      <c r="B27">
+        <v>113</v>
+      </c>
+      <c r="C27">
+        <v>657933.04221300001</v>
+      </c>
+      <c r="D27">
+        <f>A27/C27 * 1000000000 * 2</f>
+        <v>303982.30088473315</v>
+      </c>
+      <c r="E27">
+        <v>27.055485000000001</v>
+      </c>
+      <c r="F27">
+        <v>38.324489999999997</v>
+      </c>
+      <c r="G27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>150</v>
+      </c>
+      <c r="B28">
+        <v>209</v>
+      </c>
+      <c r="C28">
+        <v>1216885.007278</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D45" si="2">A28/C28 * 1000000000 * 2</f>
+        <v>246531.100478473</v>
+      </c>
+      <c r="E28">
+        <v>26.857472999999999</v>
+      </c>
+      <c r="F28">
+        <v>38.227142000000001</v>
+      </c>
+      <c r="G28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>233</v>
+      </c>
+      <c r="C29">
+        <v>1356622.9985440001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>294849.78540781135</v>
+      </c>
+      <c r="E29">
+        <v>26.672032999999999</v>
+      </c>
+      <c r="F29">
+        <v>38.390011000000001</v>
+      </c>
+      <c r="G29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>281</v>
+      </c>
+      <c r="C30">
+        <v>1636098.981077</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>305604.98220643314</v>
+      </c>
+      <c r="E30">
+        <v>26.748408999999999</v>
+      </c>
+      <c r="F30">
+        <v>38.280369</v>
+      </c>
+      <c r="G30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>302</v>
+      </c>
+      <c r="C31">
+        <v>1758369.7234350001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>341225.1655629577</v>
+      </c>
+      <c r="E31">
+        <v>26.848987999999999</v>
+      </c>
+      <c r="F31">
+        <v>38.155697000000004</v>
+      </c>
+      <c r="G31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>350</v>
+      </c>
+      <c r="B32">
+        <v>364</v>
+      </c>
+      <c r="C32">
+        <v>2119359.5342069999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>330288.46153841412</v>
+      </c>
+      <c r="E32">
+        <v>26.848673000000002</v>
+      </c>
+      <c r="F32">
+        <v>38.155659</v>
+      </c>
+      <c r="G32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>400</v>
+      </c>
+      <c r="B33">
+        <v>408</v>
+      </c>
+      <c r="C33">
+        <v>2375545.8515280001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>336764.70588240743</v>
+      </c>
+      <c r="E33">
+        <v>26.856846000000001</v>
+      </c>
+      <c r="F33">
+        <v>38.133006999999999</v>
+      </c>
+      <c r="G33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>450</v>
+      </c>
+      <c r="B34">
+        <v>449</v>
+      </c>
+      <c r="C34">
+        <v>2614264.9199419999</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>344265.03340754285</v>
+      </c>
+      <c r="E34">
+        <v>26.836414000000001</v>
+      </c>
+      <c r="F34">
+        <v>38.142615999999997</v>
+      </c>
+      <c r="G34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>494</v>
+      </c>
+      <c r="C35">
+        <v>2876273.6535660001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>347672.0647773557</v>
+      </c>
+      <c r="E35">
+        <v>26.853387999999999</v>
+      </c>
+      <c r="F35">
+        <v>38.085628999999997</v>
+      </c>
+      <c r="G35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>550</v>
+      </c>
+      <c r="B36">
+        <v>546</v>
+      </c>
+      <c r="C36">
+        <v>3179039.30131</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>346016.48351648828</v>
+      </c>
+      <c r="E36">
+        <v>26.877903</v>
+      </c>
+      <c r="F36">
+        <v>38.058822999999997</v>
+      </c>
+      <c r="G36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>600</v>
+      </c>
+      <c r="B37">
+        <v>590</v>
+      </c>
+      <c r="C37">
+        <v>3435225.6186319999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>349322.03389827785</v>
+      </c>
+      <c r="E37">
+        <v>26.756266</v>
+      </c>
+      <c r="F37">
+        <v>38.122456</v>
+      </c>
+      <c r="G37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>650</v>
+      </c>
+      <c r="B38">
+        <v>638</v>
+      </c>
+      <c r="C38">
+        <v>3714701.6011640001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>349960.81504706747</v>
+      </c>
+      <c r="E38">
+        <v>26.878844999999998</v>
+      </c>
+      <c r="F38">
+        <v>38.023677999999997</v>
+      </c>
+      <c r="G38">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>700</v>
+      </c>
+      <c r="B39">
+        <v>690</v>
+      </c>
+      <c r="C39">
+        <v>4017467.2489080001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>348478.26086959097</v>
+      </c>
+      <c r="E39">
+        <v>26.872872999999998</v>
+      </c>
+      <c r="F39">
+        <v>38.028919000000002</v>
+      </c>
+      <c r="G39">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>750</v>
+      </c>
+      <c r="B40">
+        <v>741</v>
+      </c>
+      <c r="C40">
+        <v>4314410.4803489996</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>347672.06477735576</v>
+      </c>
+      <c r="E40">
+        <v>26.888905000000001</v>
+      </c>
+      <c r="F40">
+        <v>37.989483</v>
+      </c>
+      <c r="G40">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>800</v>
+      </c>
+      <c r="B41">
+        <v>858</v>
+      </c>
+      <c r="C41">
+        <v>4599708.8791850004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>347848.10126581229</v>
+      </c>
+      <c r="E41">
+        <v>26.767267</v>
+      </c>
+      <c r="F41">
+        <v>38.041362999999997</v>
+      </c>
+      <c r="G41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>850</v>
+      </c>
+      <c r="B42">
+        <v>841</v>
+      </c>
+      <c r="C42">
+        <v>4896652.110626</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>347175.98097502335</v>
+      </c>
+      <c r="E42">
+        <v>26.873816000000001</v>
+      </c>
+      <c r="F42">
+        <v>37.999648999999998</v>
+      </c>
+      <c r="G42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>900</v>
+      </c>
+      <c r="B43">
+        <v>893</v>
+      </c>
+      <c r="C43">
+        <v>5199417.7583699999</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>346192.60918251239</v>
+      </c>
+      <c r="E43">
+        <v>27.101374</v>
+      </c>
+      <c r="F43">
+        <v>37.859054999999998</v>
+      </c>
+      <c r="G43">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>950</v>
+      </c>
+      <c r="B44">
+        <v>944</v>
+      </c>
+      <c r="C44">
+        <v>5496360.9898110004</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>345683.26271184999</v>
+      </c>
+      <c r="E44">
+        <v>26.894876</v>
+      </c>
+      <c r="F44">
+        <v>37.902042000000002</v>
+      </c>
+      <c r="G44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>992</v>
+      </c>
+      <c r="C45">
+        <v>5775836.9723439999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>346270.16129029397</v>
+      </c>
+      <c r="E45">
+        <v>26.743382</v>
+      </c>
+      <c r="F45">
+        <v>37.991881999999997</v>
+      </c>
+      <c r="G45">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tools/device-monitor-modified.xlsx
+++ b/tools/device-monitor-modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\abroad\master\fall\ME1050\Project\SmartRangeHood\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D41A30-01E9-42C7-B191-C83AE9E17E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EA6C5-51F7-4BC0-B15B-C018C5DF24B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
         <v>47.723590999999999</v>
       </c>
       <c r="G8">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>47.043273999999997</v>
       </c>
       <c r="G9">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>46.854351000000001</v>
       </c>
       <c r="G10">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>46.655566999999998</v>
       </c>
       <c r="G11">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>46.985320999999999</v>
       </c>
       <c r="G12">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>46.472724999999997</v>
       </c>
       <c r="G13">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>46.402873999999997</v>
       </c>
       <c r="G14">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>46.478057999999997</v>
       </c>
       <c r="G15">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>46.143169</v>
       </c>
       <c r="G16">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>46.281384000000003</v>
       </c>
       <c r="G17">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>46.417614</v>
       </c>
       <c r="G18">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>46.403702000000003</v>
       </c>
       <c r="G19">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>46.372444000000002</v>
       </c>
       <c r="G20">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>46.358325999999998</v>
       </c>
       <c r="G21">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>46.294471999999999</v>
       </c>
       <c r="G22">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>46.411921999999997</v>
       </c>
       <c r="G23">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>46.250805</v>
       </c>
       <c r="G24">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>46.229916000000003</v>
       </c>
       <c r="G25">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>46.112366000000002</v>
       </c>
       <c r="G26">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>38.324489999999997</v>
       </c>
       <c r="G27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>38.227142000000001</v>
       </c>
       <c r="G28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>38.390011000000001</v>
       </c>
       <c r="G29">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>38.280369</v>
       </c>
       <c r="G30">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>38.155697000000004</v>
       </c>
       <c r="G31">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>38.155659</v>
       </c>
       <c r="G32">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>38.133006999999999</v>
       </c>
       <c r="G33">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>38.142615999999997</v>
       </c>
       <c r="G34">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>38.085628999999997</v>
       </c>
       <c r="G35">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>38.058822999999997</v>
       </c>
       <c r="G36">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>38.122456</v>
       </c>
       <c r="G37">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>38.023677999999997</v>
       </c>
       <c r="G38">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>38.028919000000002</v>
       </c>
       <c r="G39">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>37.989483</v>
       </c>
       <c r="G40">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>38.041362999999997</v>
       </c>
       <c r="G41">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>37.999648999999998</v>
       </c>
       <c r="G42">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>37.859054999999998</v>
       </c>
       <c r="G43">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>37.902042000000002</v>
       </c>
       <c r="G44">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>37.991881999999997</v>
       </c>
       <c r="G45">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tools/device-monitor-modified.xlsx
+++ b/tools/device-monitor-modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\abroad\master\fall\ME1050\Project\SmartRangeHood\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EA6C5-51F7-4BC0-B15B-C018C5DF24B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E402EA-F68B-48BE-A2FB-556B999168A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2378,7 @@
         <v>800</v>
       </c>
       <c r="B41">
-        <v>858</v>
+        <v>790</v>
       </c>
       <c r="C41">
         <v>4599708.8791850004</v>
